--- a/Stilling-Raa Spruthus.xlsx
+++ b/Stilling-Raa Spruthus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Projects\holdquizzen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C009399B-EE91-446B-9920-B96A2CF5717F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1046F35E-AE62-4D9D-A799-D8B5FC37AF41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32130" yWindow="3075" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5100" yWindow="2760" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -74,21 +74,12 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Navn 1</t>
-  </si>
-  <si>
     <t>Navn 2</t>
   </si>
   <si>
     <t>Navn 3</t>
   </si>
   <si>
-    <t>Navn 4</t>
-  </si>
-  <si>
-    <t>Navn 5</t>
-  </si>
-  <si>
     <t>Navn 6</t>
   </si>
   <si>
@@ -123,6 +114,15 @@
   </si>
   <si>
     <t>Navn 17</t>
+  </si>
+  <si>
+    <t>Bingbongland</t>
+  </si>
+  <si>
+    <t>Hold Min Øl</t>
+  </si>
+  <si>
+    <t>Bord 13</t>
   </si>
 </sst>
 </file>
@@ -539,7 +539,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,16 +592,14 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="3">
-        <v>12</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B2" s="3"/>
       <c r="C2" s="3">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D2" s="3">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -613,12 +611,12 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3">
         <f>SUM(B2:L2)</f>
-        <v>72</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3">
         <v>18</v>
@@ -644,7 +642,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3">
         <v>20</v>
@@ -670,17 +668,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B5" s="4">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3">
-        <v>21</v>
-      </c>
-      <c r="D5" s="3">
-        <v>16</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -696,13 +690,11 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="4">
-        <v>54</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B6" s="4"/>
       <c r="C6" s="3">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -720,11 +712,11 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -737,16 +729,16 @@
       <c r="L7" s="3"/>
       <c r="M7" s="4">
         <f t="shared" ref="M7:M12" si="0">SUM(C7:L7)</f>
-        <v>16</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3">
-        <v>17</v>
+        <v>200</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -759,16 +751,16 @@
       <c r="L8" s="3"/>
       <c r="M8" s="4">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -781,16 +773,16 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3">
-        <v>18</v>
+        <v>200</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -803,16 +795,16 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -825,12 +817,12 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3">
@@ -854,7 +846,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -876,7 +868,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -898,7 +890,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -920,7 +912,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -942,7 +934,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -964,7 +956,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
